--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.29347</v>
+      </c>
+      <c r="H2">
+        <v>0.8804099999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.1501202107524681</v>
+      </c>
+      <c r="J2">
+        <v>0.1501202107524681</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.853892</v>
-      </c>
-      <c r="H2">
-        <v>5.561676</v>
-      </c>
-      <c r="I2">
-        <v>0.5711238486747862</v>
-      </c>
-      <c r="J2">
-        <v>0.571123848674786</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.1604616666666667</v>
+        <v>0.04110666666666667</v>
       </c>
       <c r="N2">
-        <v>0.4813850000000001</v>
+        <v>0.12332</v>
       </c>
       <c r="O2">
-        <v>0.01863590595952956</v>
+        <v>0.004039063627665411</v>
       </c>
       <c r="P2">
-        <v>0.01863590595952956</v>
+        <v>0.004039063627665412</v>
       </c>
       <c r="Q2">
-        <v>0.29747860014</v>
+        <v>0.01206357346666666</v>
       </c>
       <c r="R2">
-        <v>2.677307401260001</v>
+        <v>0.1085721612</v>
       </c>
       <c r="S2">
-        <v>0.01064341033514791</v>
+        <v>0.00060634508302776</v>
       </c>
       <c r="T2">
-        <v>0.0106434103351479</v>
+        <v>0.0006063450830277601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H3">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I3">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J3">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.301412</v>
       </c>
       <c r="O3">
-        <v>0.8246437068815905</v>
+        <v>0.6976788714492014</v>
       </c>
       <c r="P3">
-        <v>0.8246437068815904</v>
+        <v>0.6976788714492014</v>
       </c>
       <c r="Q3">
-        <v>13.163505765168</v>
+        <v>2.083775126546666</v>
       </c>
       <c r="R3">
-        <v>118.471551886512</v>
+        <v>18.75397613892</v>
       </c>
       <c r="S3">
-        <v>0.4709736876596562</v>
+        <v>0.1047356992194982</v>
       </c>
       <c r="T3">
-        <v>0.470973687659656</v>
+        <v>0.1047356992194982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H4">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I4">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J4">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.349417333333333</v>
+        <v>3.035699</v>
       </c>
       <c r="N4">
-        <v>4.048252</v>
+        <v>9.107097</v>
       </c>
       <c r="O4">
-        <v>0.15672038715888</v>
+        <v>0.2982820649231331</v>
       </c>
       <c r="P4">
-        <v>0.15672038715888</v>
+        <v>0.2982820649231332</v>
       </c>
       <c r="Q4">
-        <v>2.501673998928</v>
+        <v>0.8908865855299998</v>
       </c>
       <c r="R4">
-        <v>22.515065990352</v>
+        <v>8.017979269769999</v>
       </c>
       <c r="S4">
-        <v>0.08950675067998208</v>
+        <v>0.04477816644994213</v>
       </c>
       <c r="T4">
-        <v>0.08950675067998205</v>
+        <v>0.04477816644994214</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.278734</v>
       </c>
       <c r="I5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1604616666666667</v>
+        <v>0.04110666666666667</v>
       </c>
       <c r="N5">
-        <v>0.4813850000000001</v>
+        <v>0.12332</v>
       </c>
       <c r="O5">
-        <v>0.01863590595952956</v>
+        <v>0.004039063627665411</v>
       </c>
       <c r="P5">
-        <v>0.01863590595952956</v>
+        <v>0.004039063627665412</v>
       </c>
       <c r="Q5">
-        <v>0.06839592962111113</v>
+        <v>0.01752149743111111</v>
       </c>
       <c r="R5">
-        <v>0.6155633665900001</v>
+        <v>0.15769347688</v>
       </c>
       <c r="S5">
-        <v>0.002447120377293647</v>
+        <v>0.0008806738603609906</v>
       </c>
       <c r="T5">
-        <v>0.002447120377293646</v>
+        <v>0.0008806738603609908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.278734</v>
       </c>
       <c r="I6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.301412</v>
       </c>
       <c r="O6">
-        <v>0.8246437068815905</v>
+        <v>0.6976788714492014</v>
       </c>
       <c r="P6">
-        <v>0.8246437068815904</v>
+        <v>0.6976788714492014</v>
       </c>
       <c r="Q6">
         <v>3.026537752489777</v>
@@ -818,10 +818,10 @@
         <v>27.238839772408</v>
       </c>
       <c r="S6">
-        <v>0.1082857159452983</v>
+        <v>0.1521212839537782</v>
       </c>
       <c r="T6">
-        <v>0.1082857159452982</v>
+        <v>0.1521212839537782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.278734</v>
       </c>
       <c r="I7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.349417333333333</v>
+        <v>3.035699</v>
       </c>
       <c r="N7">
-        <v>4.048252</v>
+        <v>9.107097</v>
       </c>
       <c r="O7">
-        <v>0.15672038715888</v>
+        <v>0.2982820649231331</v>
       </c>
       <c r="P7">
-        <v>0.15672038715888</v>
+        <v>0.2982820649231332</v>
       </c>
       <c r="Q7">
-        <v>0.5751819414408889</v>
+        <v>1.293950508355333</v>
       </c>
       <c r="R7">
-        <v>5.176637472968</v>
+        <v>11.645554575198</v>
       </c>
       <c r="S7">
-        <v>0.0205792867696745</v>
+        <v>0.06503715757113199</v>
       </c>
       <c r="T7">
-        <v>0.02057928676967449</v>
+        <v>0.065037157571132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H8">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1604616666666667</v>
+        <v>0.04110666666666667</v>
       </c>
       <c r="N8">
-        <v>0.4813850000000001</v>
+        <v>0.12332</v>
       </c>
       <c r="O8">
-        <v>0.01863590595952956</v>
+        <v>0.004039063627665411</v>
       </c>
       <c r="P8">
-        <v>0.01863590595952956</v>
+        <v>0.004039063627665412</v>
       </c>
       <c r="Q8">
-        <v>0.1549907796288889</v>
+        <v>0.05077435176888889</v>
       </c>
       <c r="R8">
-        <v>1.39491701666</v>
+        <v>0.45696916592</v>
       </c>
       <c r="S8">
-        <v>0.005545375247088009</v>
+        <v>0.00255204468427666</v>
       </c>
       <c r="T8">
-        <v>0.005545375247088007</v>
+        <v>0.002552044684276661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H9">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.301412</v>
       </c>
       <c r="O9">
-        <v>0.8246437068815905</v>
+        <v>0.6976788714492014</v>
       </c>
       <c r="P9">
-        <v>0.8246437068815904</v>
+        <v>0.6976788714492014</v>
       </c>
       <c r="Q9">
-        <v>6.858382486110221</v>
+        <v>8.770397227230221</v>
       </c>
       <c r="R9">
-        <v>61.725442374992</v>
+        <v>78.933575045072</v>
       </c>
       <c r="S9">
-        <v>0.245384303276636</v>
+        <v>0.440821888275925</v>
       </c>
       <c r="T9">
-        <v>0.245384303276636</v>
+        <v>0.4408218882759249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H10">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.349417333333333</v>
+        <v>3.035699</v>
       </c>
       <c r="N10">
-        <v>4.048252</v>
+        <v>9.107097</v>
       </c>
       <c r="O10">
-        <v>0.15672038715888</v>
+        <v>0.2982820649231331</v>
       </c>
       <c r="P10">
-        <v>0.15672038715888</v>
+        <v>0.2982820649231332</v>
       </c>
       <c r="Q10">
-        <v>1.303409399159111</v>
+        <v>3.749650881214666</v>
       </c>
       <c r="R10">
-        <v>11.730684592432</v>
+        <v>33.746857930932</v>
       </c>
       <c r="S10">
-        <v>0.04663434970922343</v>
+        <v>0.188466740902059</v>
       </c>
       <c r="T10">
-        <v>0.04663434970922342</v>
+        <v>0.1884667409020591</v>
       </c>
     </row>
   </sheetData>
